--- a/biology/Médecine/1363_en_santé_et_médecine/1363_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1363_en_santé_et_médecine/1363_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1363_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1363_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1363 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1363_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1363_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Marguerite de France, comtesse de Bourgogne, fait démolir l'hôpital d'Arbois en Franche-Comté parce que les établissements de ce genre, « installés dans les faubourgs et à proximité des murailles, favorisent l'insécurité [et] peuvent devenir facilement un repaire d'écorcheurs et un point d'appui pour l'ennemi[1] ».
-1362-1363 : fondation à Paris, sur la place de Grève, aujourd'hui place de l'Hôtel-de-Ville, de l'hôpital du Saint-Esprit, voué à l'accueil des orphelins de parents morts à l'Hôtel-Dieu[2],[3].
-1362-1363 : à l'initiative du comte Louis de Male et en expiation du meurtre de l'échevin Henri Halyn, les frères Goswin et Simon Rym font construire à Gand, dans le comté de Flandre, un hospice qui sera consacré par la suite à sainte Catherine[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marguerite de France, comtesse de Bourgogne, fait démolir l'hôpital d'Arbois en Franche-Comté parce que les établissements de ce genre, « installés dans les faubourgs et à proximité des murailles, favorisent l'insécurité [et] peuvent devenir facilement un repaire d'écorcheurs et un point d'appui pour l'ennemi ».
+1362-1363 : fondation à Paris, sur la place de Grève, aujourd'hui place de l'Hôtel-de-Ville, de l'hôpital du Saint-Esprit, voué à l'accueil des orphelins de parents morts à l'Hôtel-Dieu,.
+1362-1363 : à l'initiative du comte Louis de Male et en expiation du meurtre de l'échevin Henri Halyn, les frères Goswin et Simon Rym font construire à Gand, dans le comté de Flandre, un hospice qui sera consacré par la suite à sainte Catherine.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1363_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1363_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le chirurgien français Guy de Chauliac publie sa Chirurgia Magna, traité de « grande chirurgie » plus connu sous le titre de Guidon donné d'après le prénom de l'auteur, et qui sera traduit en français par Jean Canappe en 1542[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le chirurgien français Guy de Chauliac publie sa Chirurgia Magna, traité de « grande chirurgie » plus connu sous le titre de Guidon donné d'après le prénom de l'auteur, et qui sera traduit en français par Jean Canappe en 1542.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1363_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1363_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1363-1365 : fl. Étienne Boucat, barbier, « probablement à Saint-Trivier en Franche-Comté[6] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1363-1365 : fl. Étienne Boucat, barbier, « probablement à Saint-Trivier en Franche-Comté ».</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1363_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1363_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,11 +621,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Janvier : Pierre Chauchat (né à une date inconnue), docteur et trois fois doyen de la faculté de médecine de Paris, médecin du roi Jean le Bon, auteur en 1339 d'une Expositio libri de Crisis Galeni[7].
-Jean de Coucy (né à une date inconnue), maître régent et deux fois doyen de la faculté de médecine de Paris, resté médecin de Jean II le Bon jusqu'à sa mort[7].
-Avant 1363 : Jacques de Aptio (né à une date inconnue), barbier du pape Innocent VI[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Janvier : Pierre Chauchat (né à une date inconnue), docteur et trois fois doyen de la faculté de médecine de Paris, médecin du roi Jean le Bon, auteur en 1339 d'une Expositio libri de Crisis Galeni.
+Jean de Coucy (né à une date inconnue), maître régent et deux fois doyen de la faculté de médecine de Paris, resté médecin de Jean II le Bon jusqu'à sa mort.
+Avant 1363 : Jacques de Aptio (né à une date inconnue), barbier du pape Innocent VI.</t>
         </is>
       </c>
     </row>
